--- a/BEMFSimulation/ExcelResults/PhaseVoltage500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B2">
-        <v>0.3671310846904419</v>
+        <v>0.5135576777055839</v>
       </c>
       <c r="C2">
-        <v>32.88055194588016</v>
+        <v>33.333049007843</v>
       </c>
       <c r="D2">
-        <v>-34.6263251105031</v>
+        <v>-35.4572251910756</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B3">
-        <v>2.086617626676113</v>
+        <v>2.096202462885596</v>
       </c>
       <c r="C3">
-        <v>31.37330211718587</v>
+        <v>32.20338341539703</v>
       </c>
       <c r="D3">
-        <v>-34.21766430912673</v>
+        <v>-35.47481407822053</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.001</v>
       </c>
       <c r="B4">
-        <v>6.232849179179683</v>
+        <v>6.201901327036603</v>
       </c>
       <c r="C4">
-        <v>28.80926332841029</v>
+        <v>30.15359100726055</v>
       </c>
       <c r="D4">
-        <v>-32.82392717444132</v>
+        <v>-34.03417114197885</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B5">
-        <v>11.21389149032257</v>
+        <v>11.30270732068901</v>
       </c>
       <c r="C5">
-        <v>24.9767361950088</v>
+        <v>24.80065605046142</v>
       </c>
       <c r="D5">
-        <v>-31.71930037040176</v>
+        <v>-32.03508856280542</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B6">
-        <v>14.13786146246324</v>
+        <v>14.76541570536304</v>
       </c>
       <c r="C6">
-        <v>20.77131477772046</v>
+        <v>21.16255458720462</v>
       </c>
       <c r="D6">
-        <v>-32.60353882322285</v>
+        <v>-33.8744908925005</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.002</v>
       </c>
       <c r="B7">
-        <v>15.29742750774268</v>
+        <v>15.68382384775337</v>
       </c>
       <c r="C7">
-        <v>18.25546267254288</v>
+        <v>18.91064460526858</v>
       </c>
       <c r="D7">
-        <v>-33.42563569873888</v>
+        <v>-34.53598924918096</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B8">
-        <v>16.58385137765517</v>
+        <v>16.60143209938223</v>
       </c>
       <c r="C8">
-        <v>17.39008895728772</v>
+        <v>17.80834830161199</v>
       </c>
       <c r="D8">
-        <v>-34.50804783523948</v>
+        <v>-34.87503042786084</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B9">
-        <v>17.40407635471477</v>
+        <v>17.7001426541018</v>
       </c>
       <c r="C9">
-        <v>16.63795552813063</v>
+        <v>16.7736758810836</v>
       </c>
       <c r="D9">
-        <v>-34.62960688209465</v>
+        <v>-34.94316016018172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.003</v>
       </c>
       <c r="B10">
-        <v>18.23505663944902</v>
+        <v>18.83385469836782</v>
       </c>
       <c r="C10">
-        <v>15.31640758299358</v>
+        <v>15.55803723868425</v>
       </c>
       <c r="D10">
-        <v>-33.53998575371985</v>
+        <v>-34.28221778059839</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B11">
-        <v>20.72802188846476</v>
+        <v>21.43678615782935</v>
       </c>
       <c r="C11">
-        <v>14.18153622033991</v>
+        <v>14.8602963204568</v>
       </c>
       <c r="D11">
-        <v>-32.72994974940029</v>
+        <v>-34.39689845812288</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.003666666666666667</v>
       </c>
       <c r="B12">
-        <v>24.96100248343325</v>
+        <v>25.19923538998985</v>
       </c>
       <c r="C12">
-        <v>11.25684456863579</v>
+        <v>11.10106478162516</v>
       </c>
       <c r="D12">
-        <v>-31.82002770559857</v>
+        <v>-32.42209892811947</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B13">
-        <v>28.75217482934037</v>
+        <v>29.50841628728739</v>
       </c>
       <c r="C13">
-        <v>6.317350475076145</v>
+        <v>6.144266778453853</v>
       </c>
       <c r="D13">
-        <v>-32.85980782182632</v>
+        <v>-33.57294921186806</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.004333333333333334</v>
       </c>
       <c r="B14">
-        <v>31.35734430516765</v>
+        <v>32.57313108338</v>
       </c>
       <c r="C14">
-        <v>2.142505613814794</v>
+        <v>2.112695836199372</v>
       </c>
       <c r="D14">
-        <v>-34.16013974020891</v>
+        <v>-35.43565010798142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B15">
-        <v>32.82138498781083</v>
+        <v>33.1522284613248</v>
       </c>
       <c r="C15">
-        <v>0.400352619147254</v>
+        <v>0.5601131707633905</v>
       </c>
       <c r="D15">
-        <v>-34.48711100914455</v>
+        <v>-35.20061573485903</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.005</v>
       </c>
       <c r="B16">
-        <v>34.53045232855351</v>
+        <v>34.96914141745779</v>
       </c>
       <c r="C16">
-        <v>-0.001072667866031107</v>
+        <v>0.009702452646795368</v>
       </c>
       <c r="D16">
-        <v>-34.47744427486546</v>
+        <v>-35.0884494829154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.005333333333333333</v>
       </c>
       <c r="B17">
-        <v>34.53972308960235</v>
+        <v>35.2669910384076</v>
       </c>
       <c r="C17">
-        <v>-0.3719084622577362</v>
+        <v>-0.4922855544029631</v>
       </c>
       <c r="D17">
-        <v>-32.89529824087692</v>
+        <v>-33.33925949681419</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.005666666666666666</v>
       </c>
       <c r="B18">
-        <v>34.14001522363769</v>
+        <v>35.52864917343083</v>
       </c>
       <c r="C18">
-        <v>-2.063169603557125</v>
+        <v>-2.043254523751218</v>
       </c>
       <c r="D18">
-        <v>-31.36837634842291</v>
+        <v>-32.27772098364501</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.005999999999999999</v>
       </c>
       <c r="B19">
-        <v>32.91054105641353</v>
+        <v>34.2283542165806</v>
       </c>
       <c r="C19">
-        <v>-6.205357646116655</v>
+        <v>-6.169799475633995</v>
       </c>
       <c r="D19">
-        <v>-28.86231424054937</v>
+        <v>-30.13992061673979</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.006333333333333332</v>
       </c>
       <c r="B20">
-        <v>31.83573681850381</v>
+        <v>32.28894609481437</v>
       </c>
       <c r="C20">
-        <v>-11.21974109545509</v>
+        <v>-11.1914778121594</v>
       </c>
       <c r="D20">
-        <v>-24.99534945305263</v>
+        <v>-24.83121984587118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.006666666666666665</v>
       </c>
       <c r="B21">
-        <v>32.69310342850642</v>
+        <v>34.07369926522325</v>
       </c>
       <c r="C21">
-        <v>-14.16161135740385</v>
+        <v>-14.7402279087832</v>
       </c>
       <c r="D21">
-        <v>-20.77358077199251</v>
+        <v>-21.25983886362107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.006999999999999998</v>
       </c>
       <c r="B22">
-        <v>33.49154904150171</v>
+        <v>34.52158135208909</v>
       </c>
       <c r="C22">
-        <v>-15.29392026805917</v>
+        <v>-15.70526118273422</v>
       </c>
       <c r="D22">
-        <v>-18.28660217326244</v>
+        <v>-18.9957722359798</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.007333333333333331</v>
       </c>
       <c r="B23">
-        <v>34.52219394372315</v>
+        <v>34.87604611583507</v>
       </c>
       <c r="C23">
-        <v>-16.58284484874495</v>
+        <v>-16.70037705306639</v>
       </c>
       <c r="D23">
-        <v>-17.4134640503229</v>
+        <v>-17.79988807306815</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.007666666666666665</v>
       </c>
       <c r="B24">
-        <v>34.59228277981443</v>
+        <v>35.09075175762336</v>
       </c>
       <c r="C24">
-        <v>-17.40737376175611</v>
+        <v>-17.79995821679502</v>
       </c>
       <c r="D24">
-        <v>-16.62714275871047</v>
+        <v>-16.73854752297699</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.007999999999999998</v>
       </c>
       <c r="B25">
-        <v>33.58332508991421</v>
+        <v>34.40967261180266</v>
       </c>
       <c r="C25">
-        <v>-18.26093766936912</v>
+        <v>-18.83174442016557</v>
       </c>
       <c r="D25">
-        <v>-15.30112101132208</v>
+        <v>-15.56896957506521</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B26">
-        <v>32.81769247873349</v>
+        <v>34.36108866956035</v>
       </c>
       <c r="C26">
-        <v>-20.74767325270921</v>
+        <v>-21.32847712480304</v>
       </c>
       <c r="D26">
-        <v>-14.18973319614977</v>
+        <v>-14.90773590926066</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.008666666666666665</v>
       </c>
       <c r="B27">
-        <v>31.93576838722363</v>
+        <v>32.26010988087224</v>
       </c>
       <c r="C27">
-        <v>-24.97080737090759</v>
+        <v>-25.117683834915</v>
       </c>
       <c r="D27">
-        <v>-11.27104615247071</v>
+        <v>-11.24216634540418</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B28">
-        <v>33.01443968712418</v>
+        <v>33.58948218384851</v>
       </c>
       <c r="C28">
-        <v>-28.81380325346397</v>
+        <v>-29.58878596917722</v>
       </c>
       <c r="D28">
-        <v>-6.307681951105787</v>
+        <v>-6.184016571101001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.009333333333333331</v>
       </c>
       <c r="B29">
-        <v>34.2290885249838</v>
+        <v>35.63709671073251</v>
       </c>
       <c r="C29">
-        <v>-31.40886796055055</v>
+        <v>-32.64641725422818</v>
       </c>
       <c r="D29">
-        <v>-2.119536631912916</v>
+        <v>-2.061175753493988</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.009666666666666664</v>
       </c>
       <c r="B30">
-        <v>34.46912865772546</v>
+        <v>35.38864257016502</v>
       </c>
       <c r="C30">
-        <v>-32.83896565810576</v>
+        <v>-33.198950070749</v>
       </c>
       <c r="D30">
-        <v>-0.3791378995891825</v>
+        <v>-0.5102135310301736</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.009999999999999997</v>
       </c>
       <c r="B31">
-        <v>34.44649945039227</v>
+        <v>34.97311988708001</v>
       </c>
       <c r="C31">
-        <v>-34.50727582897218</v>
+        <v>-34.9372823081012</v>
       </c>
       <c r="D31">
-        <v>0.01241857461198315</v>
+        <v>0.01023936007059356</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.01033333333333333</v>
       </c>
       <c r="B32">
-        <v>32.84704151397572</v>
+        <v>32.9883743328252</v>
       </c>
       <c r="C32">
-        <v>-34.5366687826134</v>
+        <v>-35.19273094126401</v>
       </c>
       <c r="D32">
-        <v>0.3760465685846703</v>
+        <v>0.4680377199545865</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.01066666666666666</v>
       </c>
       <c r="B33">
-        <v>31.31593613423657</v>
+        <v>32.11668556556777</v>
       </c>
       <c r="C33">
-        <v>-34.15522635788248</v>
+        <v>-35.49738769229045</v>
       </c>
       <c r="D33">
-        <v>2.06767580595027</v>
+        <v>2.003715848564805</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.011</v>
       </c>
       <c r="B34">
-        <v>28.81845846014174</v>
+        <v>30.24653865816706</v>
       </c>
       <c r="C34">
-        <v>-32.90356667892797</v>
+        <v>-34.17239156222347</v>
       </c>
       <c r="D34">
-        <v>6.192852889593814</v>
+        <v>6.166588776484808</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.01133333333333333</v>
       </c>
       <c r="B35">
-        <v>24.98413836123131</v>
+        <v>24.87431418594935</v>
       </c>
       <c r="C35">
-        <v>-31.81044242299509</v>
+        <v>-32.1154497503761</v>
       </c>
       <c r="D35">
-        <v>11.20430132058106</v>
+        <v>11.2064455624894</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.01166666666666666</v>
       </c>
       <c r="B36">
-        <v>20.78734930246534</v>
+        <v>21.14359016519719</v>
       </c>
       <c r="C36">
-        <v>-32.66571118310971</v>
+        <v>-33.93848640485991</v>
       </c>
       <c r="D36">
-        <v>14.14761948811283</v>
+        <v>14.72331395797798</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.012</v>
       </c>
       <c r="B37">
-        <v>18.28506898247187</v>
+        <v>18.89713843435386</v>
       </c>
       <c r="C37">
-        <v>-33.51328131233932</v>
+        <v>-34.55151255116424</v>
       </c>
       <c r="D37">
-        <v>15.30431447779143</v>
+        <v>15.72126501510778</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.01233333333333333</v>
       </c>
       <c r="B38">
-        <v>17.40315736100331</v>
+        <v>17.80803562325399</v>
       </c>
       <c r="C38">
-        <v>-34.54702547539659</v>
+        <v>-34.86657280933822</v>
       </c>
       <c r="D38">
-        <v>16.59257193965069</v>
+        <v>16.6686715758544</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.01266666666666666</v>
       </c>
       <c r="B39">
-        <v>16.63926324416693</v>
+        <v>16.81626312377539</v>
       </c>
       <c r="C39">
-        <v>-34.64704388643842</v>
+        <v>-35.02218523748818</v>
       </c>
       <c r="D39">
-        <v>17.44090675171756</v>
+        <v>17.77613321758166</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.01299999999999999</v>
       </c>
       <c r="B40">
-        <v>15.29808526724422</v>
+        <v>15.5921791390768</v>
       </c>
       <c r="C40">
-        <v>-33.52306699769294</v>
+        <v>-34.35012248925958</v>
       </c>
       <c r="D40">
-        <v>18.24827307781365</v>
+        <v>18.82805984488416</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="B41">
-        <v>14.186420147725</v>
+        <v>14.92236676892918</v>
       </c>
       <c r="C41">
-        <v>-32.7465578407181</v>
+        <v>-34.5009448677155</v>
       </c>
       <c r="D41">
-        <v>20.73436134125622</v>
+        <v>21.42690248056363</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.01366666666666666</v>
       </c>
       <c r="B42">
-        <v>11.27914501016053</v>
+        <v>11.15541121283481</v>
       </c>
       <c r="C42">
-        <v>-31.86078848051137</v>
+        <v>-32.37436900510102</v>
       </c>
       <c r="D42">
-        <v>24.96725753382077</v>
+        <v>25.21233398488677</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.01399999999999999</v>
       </c>
       <c r="B43">
-        <v>6.336487410678493</v>
+        <v>6.144499308457022</v>
       </c>
       <c r="C43">
-        <v>-32.89109176432309</v>
+        <v>-33.64110406235296</v>
       </c>
       <c r="D43">
-        <v>28.81585241241421</v>
+        <v>29.63432794347583</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.01433333333333333</v>
       </c>
       <c r="B44">
-        <v>2.149668614629369</v>
+        <v>2.056310115598758</v>
       </c>
       <c r="C44">
-        <v>-34.18690100498146</v>
+        <v>-35.6221902834672</v>
       </c>
       <c r="D44">
-        <v>31.44418352959426</v>
+        <v>32.62450502013577</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.01466666666666666</v>
       </c>
       <c r="B45">
-        <v>0.4013630370451049</v>
+        <v>0.5173940672820176</v>
       </c>
       <c r="C45">
-        <v>-34.5236698340466</v>
+        <v>-35.21454868869522</v>
       </c>
       <c r="D45">
-        <v>32.92015387885483</v>
+        <v>33.01368850778881</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.01499999999999999</v>
       </c>
       <c r="B46">
-        <v>0.004851488850488028</v>
+        <v>0.03387756221044647</v>
       </c>
       <c r="C46">
-        <v>-34.5304813848321</v>
+        <v>-35.16644801668058</v>
       </c>
       <c r="D46">
-        <v>34.62436977346785</v>
+        <v>35.175720403227</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.01533333333333333</v>
       </c>
       <c r="B47">
-        <v>-0.3683743071855594</v>
+        <v>-0.5149463682510569</v>
       </c>
       <c r="C47">
-        <v>-32.87739741620069</v>
+        <v>-33.33083806971262</v>
       </c>
       <c r="D47">
-        <v>34.62547971749238</v>
+        <v>35.45724229334861</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.01566666666666666</v>
       </c>
       <c r="B48">
-        <v>-2.090586336782663</v>
+        <v>-2.100055501279771</v>
       </c>
       <c r="C48">
-        <v>-31.37161030510215</v>
+        <v>-32.20325426070262</v>
       </c>
       <c r="D48">
-        <v>34.21704542791169</v>
+        <v>35.47488865775703</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.01599999999999999</v>
       </c>
       <c r="B49">
-        <v>-6.240621935317075</v>
+        <v>-6.209617491548594</v>
       </c>
       <c r="C49">
-        <v>-28.80403329188264</v>
+        <v>-30.14577714018016</v>
       </c>
       <c r="D49">
-        <v>32.82117081752794</v>
+        <v>34.02971987173275</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.01633333333333333</v>
       </c>
       <c r="B50">
-        <v>-11.21954152052926</v>
+        <v>-11.3090287192686</v>
       </c>
       <c r="C50">
-        <v>-24.97059277921863</v>
+        <v>-24.79457518720405</v>
       </c>
       <c r="D50">
-        <v>31.71928851223213</v>
+        <v>32.03566724592577</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.01666666666666666</v>
       </c>
       <c r="B51">
-        <v>-14.14067923378226</v>
+        <v>-14.76870772330503</v>
       </c>
       <c r="C51">
-        <v>-20.76626500029191</v>
+        <v>-21.15818832097376</v>
       </c>
       <c r="D51">
-        <v>32.60531659646639</v>
+        <v>33.87733218957803</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.017</v>
       </c>
       <c r="B52">
-        <v>-15.29874977922133</v>
+        <v>-15.68403286955275</v>
       </c>
       <c r="C52">
-        <v>-18.25313472057077</v>
+        <v>-18.9082556449284</v>
       </c>
       <c r="D52">
-        <v>33.42664573011427</v>
+        <v>34.53543920643164</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.01733333333333333</v>
       </c>
       <c r="B53">
-        <v>-16.58576954582672</v>
+        <v>-16.60357432019345</v>
       </c>
       <c r="C53">
-        <v>-17.38951102346626</v>
+        <v>-17.8076459741848</v>
       </c>
       <c r="D53">
-        <v>34.50961414617938</v>
+        <v>34.87652849642135</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.01766666666666667</v>
       </c>
       <c r="B54">
-        <v>-17.40475172320949</v>
+        <v>-17.70121787345959</v>
       </c>
       <c r="C54">
-        <v>-16.63618208065001</v>
+        <v>-16.77149625048162</v>
       </c>
       <c r="D54">
-        <v>34.62837385373406</v>
+        <v>34.94202973834477</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.018</v>
       </c>
       <c r="B55">
-        <v>-18.23733863894989</v>
+        <v>-18.83639460374058</v>
       </c>
       <c r="C55">
-        <v>-15.31498728925895</v>
+        <v>-15.55652598989883</v>
       </c>
       <c r="D55">
-        <v>33.53885888449783</v>
+        <v>34.28156102769334</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.01833333333333334</v>
       </c>
       <c r="B56">
-        <v>-20.73291088898402</v>
+        <v>-21.44161874548883</v>
       </c>
       <c r="C56">
-        <v>-14.17869623187235</v>
+        <v>-14.85796087009737</v>
       </c>
       <c r="D56">
-        <v>32.72805923053355</v>
+        <v>34.39594860766003</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.01866666666666667</v>
       </c>
       <c r="B57">
-        <v>-24.96726578388191</v>
+        <v>-25.20468843993914</v>
       </c>
       <c r="C57">
-        <v>-11.25127894524139</v>
+        <v>-11.094332323675</v>
       </c>
       <c r="D57">
-        <v>31.82008479969071</v>
+        <v>32.42014912097772</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.01900000000000001</v>
       </c>
       <c r="B58">
-        <v>-28.75721643548235</v>
+        <v>-29.51484368607066</v>
       </c>
       <c r="C58">
-        <v>-6.309534254508114</v>
+        <v>-6.136913403585812</v>
       </c>
       <c r="D58">
-        <v>32.86226836338027</v>
+        <v>33.57677394460679</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.01933333333333334</v>
       </c>
       <c r="B59">
-        <v>-31.35951413516146</v>
+        <v>-32.57469891332938</v>
       </c>
       <c r="C59">
-        <v>-2.138550644792764</v>
+        <v>-2.108902048501976</v>
       </c>
       <c r="D59">
-        <v>34.161132122904</v>
+        <v>35.4364769351474</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.01966666666666668</v>
       </c>
       <c r="B60">
-        <v>-32.82401370446148</v>
+        <v>-33.154259978933</v>
       </c>
       <c r="C60">
-        <v>-0.3990305676717931</v>
+        <v>-0.5587784503927745</v>
       </c>
       <c r="D60">
-        <v>34.48731816343244</v>
+        <v>35.20031954573761</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.02000000000000001</v>
       </c>
       <c r="B61">
-        <v>-34.53178644833595</v>
+        <v>-34.970982487753</v>
       </c>
       <c r="C61">
-        <v>0.001196099163464082</v>
+        <v>-0.009356175926650279</v>
       </c>
       <c r="D61">
-        <v>34.47642828268803</v>
+        <v>35.0869018108092</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.02033333333333335</v>
       </c>
       <c r="B62">
-        <v>-34.53921456899564</v>
+        <v>-35.26700629786342</v>
       </c>
       <c r="C62">
-        <v>0.3731703138820097</v>
+        <v>0.4935200372656323</v>
       </c>
       <c r="D62">
-        <v>32.89254508736384</v>
+        <v>33.33691389018502</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.02066666666666668</v>
       </c>
       <c r="B63">
-        <v>-34.1391655568808</v>
+        <v>-35.52925246601866</v>
       </c>
       <c r="C63">
-        <v>2.067091824646039</v>
+        <v>2.047141105362208</v>
       </c>
       <c r="D63">
-        <v>31.36639012180802</v>
+        <v>32.27779911516762</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.02100000000000002</v>
       </c>
       <c r="B64">
-        <v>-32.90814957709267</v>
+        <v>-34.22396757508202</v>
       </c>
       <c r="C64">
-        <v>6.213176481651011</v>
+        <v>6.17748354301298</v>
       </c>
       <c r="D64">
-        <v>28.85727097069935</v>
+        <v>30.13192965434862</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.02133333333333335</v>
       </c>
       <c r="B65">
-        <v>-31.83564748226832</v>
+        <v>-32.28948648675809</v>
       </c>
       <c r="C65">
-        <v>11.22549495064631</v>
+        <v>11.19780628913061</v>
       </c>
       <c r="D65">
-        <v>24.98909440107912</v>
+        <v>24.82517914495594</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.02166666666666668</v>
       </c>
       <c r="B66">
-        <v>-32.69475522414147</v>
+        <v>-34.07652786418912</v>
       </c>
       <c r="C66">
-        <v>14.16428116178617</v>
+        <v>14.7436926100724</v>
       </c>
       <c r="D66">
-        <v>20.76845914446426</v>
+        <v>21.2557747342338</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.02200000000000002</v>
       </c>
       <c r="B67">
-        <v>-33.49267007618598</v>
+        <v>-34.52090931291717</v>
       </c>
       <c r="C67">
-        <v>15.29536442709536</v>
+        <v>15.70568953593421</v>
       </c>
       <c r="D67">
-        <v>18.28442125405239</v>
+        <v>18.99330406907762</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.02233333333333335</v>
       </c>
       <c r="B68">
-        <v>-34.52359474654446</v>
+        <v>-34.87750782114959</v>
       </c>
       <c r="C68">
-        <v>16.58470643829988</v>
+        <v>16.70236302652957</v>
       </c>
       <c r="D68">
-        <v>17.41277395410532</v>
+        <v>17.79892886645422</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.02266666666666669</v>
       </c>
       <c r="B69">
-        <v>-34.5910691545681</v>
+        <v>-35.08967640219664</v>
       </c>
       <c r="C69">
-        <v>17.40809926465487</v>
+        <v>17.80098185840684</v>
       </c>
       <c r="D69">
-        <v>16.62537424730756</v>
+        <v>16.73636985159821</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.02300000000000002</v>
       </c>
       <c r="B70">
-        <v>-33.58223563789489</v>
+        <v>-34.40894922168732</v>
       </c>
       <c r="C70">
-        <v>18.26317700558599</v>
+        <v>18.83408424701999</v>
       </c>
       <c r="D70">
-        <v>15.29961718215372</v>
+        <v>15.5675501396696</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.02333333333333336</v>
       </c>
       <c r="B71">
-        <v>-32.81589834802085</v>
+        <v>-34.36003187798892</v>
       </c>
       <c r="C71">
-        <v>20.75256948078436</v>
+        <v>21.33336745441958</v>
       </c>
       <c r="D71">
-        <v>14.18697036406041</v>
+        <v>14.90561690116299</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.02366666666666669</v>
       </c>
       <c r="B72">
-        <v>-31.93585401991015</v>
+        <v>-32.25784896921413</v>
       </c>
       <c r="C72">
-        <v>24.97711903222769</v>
+        <v>25.12312810852964</v>
       </c>
       <c r="D72">
-        <v>11.26545197788331</v>
+        <v>11.23536112787697</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.02400000000000003</v>
       </c>
       <c r="B73">
-        <v>-33.01702363823828</v>
+        <v>-33.59381599941396</v>
       </c>
       <c r="C73">
-        <v>28.81895483011574</v>
+        <v>29.59536672817197</v>
       </c>
       <c r="D73">
-        <v>6.299895078927475</v>
+        <v>6.176424901562991</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.02433333333333336</v>
       </c>
       <c r="B74">
-        <v>-34.22953257235771</v>
+        <v>-35.63797177454021</v>
       </c>
       <c r="C74">
-        <v>31.41067589826196</v>
+        <v>32.64796532536779</v>
       </c>
       <c r="D74">
-        <v>2.115500987968061</v>
+        <v>2.057379806135462</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.0246666666666667</v>
       </c>
       <c r="B75">
-        <v>-34.4697060528003</v>
+        <v>-35.38804454259522</v>
       </c>
       <c r="C75">
-        <v>32.84194225830313</v>
+        <v>33.20082134834261</v>
       </c>
       <c r="D75">
-        <v>0.3778423370539297</v>
+        <v>0.5089082963549707</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.02500000000000003</v>
       </c>
       <c r="B76">
-        <v>-34.4453869381494</v>
+        <v>-34.9713611963056</v>
       </c>
       <c r="C76">
-        <v>34.50851143294952</v>
+        <v>34.9391687329614</v>
       </c>
       <c r="D76">
-        <v>-0.01256248269418392</v>
+        <v>-0.0105607187354112</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.02533333333333337</v>
       </c>
       <c r="B77">
-        <v>-32.84394676620583</v>
+        <v>-32.98582900365058</v>
       </c>
       <c r="C77">
-        <v>34.53587905195453</v>
+        <v>35.19275484094222</v>
       </c>
       <c r="D77">
-        <v>-0.3772357119193881</v>
+        <v>-0.4692178363838173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.0256666666666667</v>
       </c>
       <c r="B78">
-        <v>-31.31427648557282</v>
+        <v>-32.11694133727558</v>
       </c>
       <c r="C78">
-        <v>34.15471519893841</v>
+        <v>35.49773644052238</v>
       </c>
       <c r="D78">
-        <v>-2.07162516823256</v>
+        <v>-2.007464953371966</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.02600000000000004</v>
       </c>
       <c r="B79">
-        <v>-28.81332211089718</v>
+        <v>-30.23908828410741</v>
       </c>
       <c r="C79">
-        <v>32.90104658863957</v>
+        <v>34.16821287061398</v>
       </c>
       <c r="D79">
-        <v>-6.200659742964743</v>
+        <v>-6.174395798566393</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.02633333333333337</v>
       </c>
       <c r="B80">
-        <v>-24.97800822459613</v>
+        <v>-24.86793852800443</v>
       </c>
       <c r="C80">
-        <v>31.81035972057993</v>
+        <v>32.11579252143999</v>
       </c>
       <c r="D80">
-        <v>-11.21001570905048</v>
+        <v>-11.21282983080639</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.02666666666666671</v>
       </c>
       <c r="B81">
-        <v>-20.78209439339071</v>
+        <v>-21.13945279635501</v>
       </c>
       <c r="C81">
-        <v>32.66725906142272</v>
+        <v>33.94163714995913</v>
       </c>
       <c r="D81">
-        <v>-14.15028054969675</v>
+        <v>-14.72684417691099</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.02700000000000004</v>
       </c>
       <c r="B82">
-        <v>-18.28285118703349</v>
+        <v>-18.89461911580418</v>
       </c>
       <c r="C82">
-        <v>33.5143972214177</v>
+        <v>34.55068824303569</v>
       </c>
       <c r="D82">
-        <v>-15.3056912333131</v>
+        <v>-15.72153874609926</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.02733333333333338</v>
       </c>
       <c r="B83">
-        <v>-17.40242331734937</v>
+        <v>-17.80736487215558</v>
       </c>
       <c r="C83">
-        <v>34.5482950363387</v>
+        <v>34.86808485940758</v>
       </c>
       <c r="D83">
-        <v>-16.59438314145897</v>
+        <v>-16.67072403225355</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.02766666666666671</v>
       </c>
       <c r="B84">
-        <v>-16.63747580188008</v>
+        <v>-16.81408054552303</v>
       </c>
       <c r="C84">
-        <v>34.64583569102954</v>
+        <v>35.02099297061567</v>
       </c>
       <c r="D84">
-        <v>-17.44160456707772</v>
+        <v>-17.77712811594182</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.02800000000000005</v>
       </c>
       <c r="B85">
-        <v>-15.29673059241416</v>
+        <v>-15.59069449411941</v>
       </c>
       <c r="C85">
-        <v>33.52205850858013</v>
+        <v>34.34961612989086</v>
       </c>
       <c r="D85">
-        <v>-18.25060250427646</v>
+        <v>-18.83052318544104</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.02833333333333338</v>
       </c>
       <c r="B86">
-        <v>-14.1837024295953</v>
+        <v>-14.92013309850257</v>
       </c>
       <c r="C86">
-        <v>32.7449342008244</v>
+        <v>34.49993135296646</v>
       </c>
       <c r="D86">
-        <v>-20.73942626836503</v>
+        <v>-21.43177530393739</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.02866666666666672</v>
       </c>
       <c r="B87">
-        <v>-11.27350638793639</v>
+        <v>-11.14859603455525</v>
       </c>
       <c r="C87">
-        <v>31.86066333908168</v>
+        <v>32.37237139923378</v>
       </c>
       <c r="D87">
-        <v>-24.97347263520736</v>
+        <v>-25.21799706114721</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.02900000000000005</v>
       </c>
       <c r="B88">
-        <v>-6.328783311991327</v>
+        <v>-6.136973224978165</v>
       </c>
       <c r="C88">
-        <v>32.89367850765591</v>
+        <v>33.64519547586151</v>
       </c>
       <c r="D88">
-        <v>-28.82103643208682</v>
+        <v>-29.64073414615541</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.02933333333333338</v>
       </c>
       <c r="B89">
-        <v>-2.14562123565365</v>
+        <v>-2.052486078530994</v>
       </c>
       <c r="C89">
-        <v>34.18763330908484</v>
+        <v>35.62283591039921</v>
       </c>
       <c r="D89">
-        <v>-31.44614224366457</v>
+        <v>-32.62568650002879</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.02966666666666672</v>
       </c>
       <c r="B90">
-        <v>-0.4000691158350944</v>
+        <v>-0.5162172743880533</v>
       </c>
       <c r="C90">
-        <v>34.52411725557543</v>
+        <v>35.21418271911239</v>
       </c>
       <c r="D90">
-        <v>-32.92299112129258</v>
+        <v>-33.01599506452278</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B2">
-        <v>0.5135576777055839</v>
+        <v>0.3870787475829945</v>
       </c>
       <c r="C2">
-        <v>33.333049007843</v>
+        <v>33.68411536713523</v>
       </c>
       <c r="D2">
-        <v>-35.4572251910756</v>
+        <v>-35.48886004659038</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B3">
-        <v>2.096202462885596</v>
+        <v>2.14904363703014</v>
       </c>
       <c r="C3">
-        <v>32.20338341539703</v>
+        <v>32.19023227199781</v>
       </c>
       <c r="D3">
-        <v>-35.47481407822053</v>
+        <v>-35.11591451426263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.001</v>
       </c>
       <c r="B4">
-        <v>6.201901327036603</v>
+        <v>6.394851209476013</v>
       </c>
       <c r="C4">
-        <v>30.15359100726055</v>
+        <v>29.56657668720039</v>
       </c>
       <c r="D4">
-        <v>-34.03417114197885</v>
+        <v>-33.71285673659262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B5">
-        <v>11.30270732068901</v>
+        <v>11.48678343071044</v>
       </c>
       <c r="C5">
-        <v>24.80065605046142</v>
+        <v>25.57648869830897</v>
       </c>
       <c r="D5">
-        <v>-32.03508856280542</v>
+        <v>-32.50157469502919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B6">
-        <v>14.76541570536304</v>
+        <v>14.50506899606879</v>
       </c>
       <c r="C6">
-        <v>21.16255458720462</v>
+        <v>21.29880244797641</v>
       </c>
       <c r="D6">
-        <v>-33.8744908925005</v>
+        <v>-33.44622969662734</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.002</v>
       </c>
       <c r="B7">
-        <v>15.68382384775337</v>
+        <v>15.65982004909837</v>
       </c>
       <c r="C7">
-        <v>18.91064460526858</v>
+        <v>18.69764741858959</v>
       </c>
       <c r="D7">
-        <v>-34.53598924918096</v>
+        <v>-34.21947481407838</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B8">
-        <v>16.60143209938223</v>
+        <v>17.04039026912803</v>
       </c>
       <c r="C8">
-        <v>17.80834830161199</v>
+        <v>17.88167850497298</v>
       </c>
       <c r="D8">
-        <v>-34.87503042786084</v>
+        <v>-35.48689842195986</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B9">
-        <v>17.7001426541018</v>
+        <v>17.85201988680638</v>
       </c>
       <c r="C9">
-        <v>16.7736758810836</v>
+        <v>17.05809568712746</v>
       </c>
       <c r="D9">
-        <v>-34.94316016018172</v>
+        <v>-35.52947413907638</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.003</v>
       </c>
       <c r="B10">
-        <v>18.83385469836782</v>
+        <v>18.71313232549424</v>
       </c>
       <c r="C10">
-        <v>15.55803723868425</v>
+        <v>15.68850146692537</v>
       </c>
       <c r="D10">
-        <v>-34.28221778059839</v>
+        <v>-34.38235288720094</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B11">
-        <v>21.43678615782935</v>
+        <v>21.28526504413919</v>
       </c>
       <c r="C11">
-        <v>14.8602963204568</v>
+        <v>14.55907221479279</v>
       </c>
       <c r="D11">
-        <v>-34.39689845812288</v>
+        <v>-33.60644750476767</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.003666666666666667</v>
       </c>
       <c r="B12">
-        <v>25.19923538998985</v>
+        <v>25.59389476181319</v>
       </c>
       <c r="C12">
-        <v>11.10106478162516</v>
+        <v>11.51758409356045</v>
       </c>
       <c r="D12">
-        <v>-32.42209892811947</v>
+        <v>-32.61924329776791</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B13">
-        <v>29.50841628728739</v>
+        <v>29.46144943738759</v>
       </c>
       <c r="C13">
-        <v>6.144266778453853</v>
+        <v>6.466338467764135</v>
       </c>
       <c r="D13">
-        <v>-33.57294921186806</v>
+        <v>-33.70422383885399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.004333333333333334</v>
       </c>
       <c r="B14">
-        <v>32.57313108338</v>
+        <v>32.15333185352301</v>
       </c>
       <c r="C14">
-        <v>2.112695836199372</v>
+        <v>2.195461705970236</v>
       </c>
       <c r="D14">
-        <v>-35.43565010798142</v>
+        <v>-35.02435461503775</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B15">
-        <v>33.1522284613248</v>
+        <v>33.64517408674321</v>
       </c>
       <c r="C15">
-        <v>0.5601131707633905</v>
+        <v>0.4068427855614259</v>
       </c>
       <c r="D15">
-        <v>-35.20061573485903</v>
+        <v>-35.34404410431679</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.005</v>
       </c>
       <c r="B16">
-        <v>34.96914141745779</v>
+        <v>35.4670334721742</v>
       </c>
       <c r="C16">
-        <v>0.009702452646795368</v>
+        <v>-0.006356125346260177</v>
       </c>
       <c r="D16">
-        <v>-35.0884494829154</v>
+        <v>-35.4391066762224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.005333333333333333</v>
       </c>
       <c r="B17">
-        <v>35.2669910384076</v>
+        <v>35.3840760603126</v>
       </c>
       <c r="C17">
-        <v>-0.4922855544029631</v>
+        <v>-0.3841645381287562</v>
       </c>
       <c r="D17">
-        <v>-33.33925949681419</v>
+        <v>-33.66769472468501</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.005666666666666666</v>
       </c>
       <c r="B18">
-        <v>35.52864917343083</v>
+        <v>35.03666457959312</v>
       </c>
       <c r="C18">
-        <v>-2.043254523751218</v>
+        <v>-2.124595847954811</v>
       </c>
       <c r="D18">
-        <v>-32.27772098364501</v>
+        <v>-32.18646979811682</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.005999999999999999</v>
       </c>
       <c r="B19">
-        <v>34.2283542165806</v>
+        <v>33.80568020101705</v>
       </c>
       <c r="C19">
-        <v>-6.169799475633995</v>
+        <v>-6.365463676485037</v>
       </c>
       <c r="D19">
-        <v>-30.13992061673979</v>
+        <v>-29.62874331774779</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.006333333333333332</v>
       </c>
       <c r="B20">
-        <v>32.28894609481437</v>
+        <v>32.63512669698527</v>
       </c>
       <c r="C20">
-        <v>-11.1914778121594</v>
+        <v>-11.49735776532157</v>
       </c>
       <c r="D20">
-        <v>-24.83121984587118</v>
+        <v>-25.59961719839202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.006666666666666665</v>
       </c>
       <c r="B21">
-        <v>34.07369926522325</v>
+        <v>33.5338575906693</v>
       </c>
       <c r="C21">
-        <v>-14.7402279087832</v>
+        <v>-14.5235599331054</v>
       </c>
       <c r="D21">
-        <v>-21.25983886362107</v>
+        <v>-21.30057339221455</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.006999999999999998</v>
       </c>
       <c r="B22">
-        <v>34.52158135208909</v>
+        <v>34.28799458603515</v>
       </c>
       <c r="C22">
-        <v>-15.70526118273422</v>
+        <v>-15.64992243255917</v>
       </c>
       <c r="D22">
-        <v>-18.9957722359798</v>
+        <v>-18.72168993720905</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.007333333333333331</v>
       </c>
       <c r="B23">
-        <v>34.87604611583507</v>
+        <v>35.49585025336888</v>
       </c>
       <c r="C23">
-        <v>-16.70037705306639</v>
+        <v>-17.04704099762762</v>
       </c>
       <c r="D23">
-        <v>-17.79988807306815</v>
+        <v>-17.8968711437312</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.007666666666666665</v>
       </c>
       <c r="B24">
-        <v>35.09075175762336</v>
+        <v>35.48593049429722</v>
       </c>
       <c r="C24">
-        <v>-17.79995821679502</v>
+        <v>-17.86061347985424</v>
       </c>
       <c r="D24">
-        <v>-16.73854752297699</v>
+        <v>-17.037110900587</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.007999999999999998</v>
       </c>
       <c r="B25">
-        <v>34.40967261180266</v>
+        <v>34.42237169265399</v>
       </c>
       <c r="C25">
-        <v>-18.83174442016557</v>
+        <v>-18.73914836463035</v>
       </c>
       <c r="D25">
-        <v>-15.56896957506521</v>
+        <v>-15.66773243243134</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B26">
-        <v>34.36108866956035</v>
+        <v>33.69002639841408</v>
       </c>
       <c r="C26">
-        <v>-21.32847712480304</v>
+        <v>-21.29909384487205</v>
       </c>
       <c r="D26">
-        <v>-14.90773590926066</v>
+        <v>-14.5646496027544</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.008666666666666665</v>
       </c>
       <c r="B27">
-        <v>32.26010988087224</v>
+        <v>32.74353859087774</v>
       </c>
       <c r="C27">
-        <v>-25.117683834915</v>
+        <v>-25.60203541616256</v>
       </c>
       <c r="D27">
-        <v>-11.24216634540418</v>
+        <v>-11.53381596363641</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B28">
-        <v>33.58948218384851</v>
+        <v>33.85402074732645</v>
       </c>
       <c r="C28">
-        <v>-29.58878596917722</v>
+        <v>-29.52495100970343</v>
       </c>
       <c r="D28">
-        <v>-6.184016571101001</v>
+        <v>-6.454482654596056</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.009333333333333331</v>
       </c>
       <c r="B29">
-        <v>35.63709671073251</v>
+        <v>35.08519199028618</v>
       </c>
       <c r="C29">
-        <v>-32.64641725422818</v>
+        <v>-32.20413768896199</v>
       </c>
       <c r="D29">
-        <v>-2.061175753493988</v>
+        <v>-2.169055209654755</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.009666666666666664</v>
       </c>
       <c r="B30">
-        <v>35.38864257016502</v>
+        <v>35.34770645599761</v>
       </c>
       <c r="C30">
-        <v>-33.198950070749</v>
+        <v>-33.67690357706059</v>
       </c>
       <c r="D30">
-        <v>-0.5102135310301736</v>
+        <v>-0.3911079974035919</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.009999999999999997</v>
       </c>
       <c r="B31">
-        <v>34.97311988708001</v>
+        <v>35.4111084117488</v>
       </c>
       <c r="C31">
-        <v>-34.9372823081012</v>
+        <v>-35.44628925239782</v>
       </c>
       <c r="D31">
-        <v>0.01023936007059356</v>
+        <v>0.01336124207537703</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.01033333333333333</v>
       </c>
       <c r="B32">
-        <v>32.9883743328252</v>
+        <v>33.61404030782199</v>
       </c>
       <c r="C32">
-        <v>-35.19273094126401</v>
+        <v>-35.3718345930448</v>
       </c>
       <c r="D32">
-        <v>0.4680377199545865</v>
+        <v>0.3913899409573735</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.01066666666666666</v>
       </c>
       <c r="B33">
-        <v>32.11668556556777</v>
+        <v>32.11645453997644</v>
       </c>
       <c r="C33">
-        <v>-35.49738769229045</v>
+        <v>-35.04015350361902</v>
       </c>
       <c r="D33">
-        <v>2.003715848564805</v>
+        <v>2.134968102368643</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.011</v>
       </c>
       <c r="B34">
-        <v>30.24653865816706</v>
+        <v>29.57582272622155</v>
       </c>
       <c r="C34">
-        <v>-34.17239156222347</v>
+        <v>-33.78934514574183</v>
       </c>
       <c r="D34">
-        <v>6.166588776484808</v>
+        <v>6.354182289424193</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.01133333333333333</v>
       </c>
       <c r="B35">
-        <v>24.87431418594935</v>
+        <v>25.59477606121366</v>
       </c>
       <c r="C35">
-        <v>-32.1154497503761</v>
+        <v>-32.60513939323723</v>
       </c>
       <c r="D35">
-        <v>11.2064455624894</v>
+        <v>11.47487804213081</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.01166666666666666</v>
       </c>
       <c r="B36">
-        <v>21.14359016519719</v>
+        <v>21.31196014807796</v>
       </c>
       <c r="C36">
-        <v>-33.93848640485991</v>
+        <v>-33.49428131541347</v>
       </c>
       <c r="D36">
-        <v>14.72331395797798</v>
+        <v>14.50948862745418</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.012</v>
       </c>
       <c r="B37">
-        <v>18.89713843435386</v>
+        <v>18.71569848894958</v>
       </c>
       <c r="C37">
-        <v>-34.55151255116424</v>
+        <v>-34.30233576944484</v>
       </c>
       <c r="D37">
-        <v>15.72126501510778</v>
+        <v>15.6623915270876</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.01233333333333333</v>
       </c>
       <c r="B38">
-        <v>17.80803562325399</v>
+        <v>17.88157120598044</v>
       </c>
       <c r="C38">
-        <v>-34.86657280933822</v>
+        <v>-35.50990452350994</v>
       </c>
       <c r="D38">
-        <v>16.6686715758544</v>
+        <v>17.05267635691003</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.01266666666666666</v>
       </c>
       <c r="B39">
-        <v>16.81626312377539</v>
+        <v>17.06218551230196</v>
       </c>
       <c r="C39">
-        <v>-35.02218523748818</v>
+        <v>-35.53684302341998</v>
       </c>
       <c r="D39">
-        <v>17.77613321758166</v>
+        <v>17.88269408086539</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.01299999999999999</v>
       </c>
       <c r="B40">
-        <v>15.5921791390768</v>
+        <v>15.66997278724565</v>
       </c>
       <c r="C40">
-        <v>-34.35012248925958</v>
+        <v>-34.3424632737518</v>
       </c>
       <c r="D40">
-        <v>18.82805984488416</v>
+        <v>18.71408661645181</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="B41">
-        <v>14.92236676892918</v>
+        <v>14.55944051387416</v>
       </c>
       <c r="C41">
-        <v>-34.5009448677155</v>
+        <v>-33.61567944448051</v>
       </c>
       <c r="D41">
-        <v>21.42690248056363</v>
+        <v>21.28573785079059</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.01366666666666666</v>
       </c>
       <c r="B42">
-        <v>11.15541121283481</v>
+        <v>11.53310296467501</v>
       </c>
       <c r="C42">
-        <v>-32.37436900510102</v>
+        <v>-32.67061694495026</v>
       </c>
       <c r="D42">
-        <v>25.21233398488677</v>
+        <v>25.6109599907662</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.01399999999999999</v>
       </c>
       <c r="B43">
-        <v>6.144499308457022</v>
+        <v>6.48596479659043</v>
       </c>
       <c r="C43">
-        <v>-33.64110406235296</v>
+        <v>-33.73380507471043</v>
       </c>
       <c r="D43">
-        <v>29.63432794347583</v>
+        <v>29.52956594807481</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.01433333333333333</v>
       </c>
       <c r="B44">
-        <v>2.056310115598758</v>
+        <v>2.203672776458568</v>
       </c>
       <c r="C44">
-        <v>-35.6221902834672</v>
+        <v>-35.03095511016456</v>
       </c>
       <c r="D44">
-        <v>32.62450502013577</v>
+        <v>32.22782338870721</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.01466666666666666</v>
       </c>
       <c r="B45">
-        <v>0.5173940672820176</v>
+        <v>0.4094584144283958</v>
       </c>
       <c r="C45">
-        <v>-35.21454868869522</v>
+        <v>-35.38095715036341</v>
       </c>
       <c r="D45">
-        <v>33.01368850778881</v>
+        <v>33.74697569151621</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.01499999999999999</v>
       </c>
       <c r="B46">
-        <v>0.03387756221044647</v>
+        <v>-0.001865484351576407</v>
       </c>
       <c r="C46">
-        <v>-35.16644801668058</v>
+        <v>-35.50307689555759</v>
       </c>
       <c r="D46">
-        <v>35.175720403227</v>
+        <v>35.57191883560438</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.01533333333333333</v>
       </c>
       <c r="B47">
-        <v>-0.5149463682510569</v>
+        <v>-0.3883823130407943</v>
       </c>
       <c r="C47">
-        <v>-33.33083806971262</v>
+        <v>-33.68112048211699</v>
       </c>
       <c r="D47">
-        <v>35.45724229334861</v>
+        <v>35.4882878316018</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.01566666666666666</v>
       </c>
       <c r="B48">
-        <v>-2.100055501279771</v>
+        <v>-2.15304944929419</v>
       </c>
       <c r="C48">
-        <v>-32.20325426070262</v>
+        <v>-32.18830742010265</v>
       </c>
       <c r="D48">
-        <v>35.47488865775703</v>
+        <v>35.11503071011779</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.01599999999999999</v>
       </c>
       <c r="B49">
-        <v>-6.209617491548594</v>
+        <v>-6.402819350896442</v>
       </c>
       <c r="C49">
-        <v>-30.14577714018016</v>
+        <v>-29.56117608795835</v>
       </c>
       <c r="D49">
-        <v>34.02971987173275</v>
+        <v>33.71011127092329</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.01633333333333333</v>
       </c>
       <c r="B50">
-        <v>-11.3090287192686</v>
+        <v>-11.49261196744321</v>
       </c>
       <c r="C50">
-        <v>-24.79457518720405</v>
+        <v>-25.5703075701566</v>
       </c>
       <c r="D50">
-        <v>32.03566724592577</v>
+        <v>32.50158701496642</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.01666666666666666</v>
       </c>
       <c r="B51">
-        <v>-14.76870772330503</v>
+        <v>-14.50783246489978</v>
       </c>
       <c r="C51">
-        <v>-21.15818832097376</v>
+        <v>-21.29342063711584</v>
       </c>
       <c r="D51">
-        <v>33.87733218957803</v>
+        <v>33.4478461570633</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.017</v>
       </c>
       <c r="B52">
-        <v>-15.68403286955275</v>
+        <v>-15.66141343043038</v>
       </c>
       <c r="C52">
-        <v>-18.9082556449284</v>
+        <v>-18.69557614009677</v>
       </c>
       <c r="D52">
-        <v>34.53543920643164</v>
+        <v>34.22082616306565</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.01733333333333333</v>
       </c>
       <c r="B53">
-        <v>-16.60357432019345</v>
+        <v>-17.04228070592923</v>
       </c>
       <c r="C53">
-        <v>-17.8076459741848</v>
+        <v>-17.88104610907324</v>
       </c>
       <c r="D53">
-        <v>34.87652849642135</v>
+        <v>35.48860059373443</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.01766666666666667</v>
       </c>
       <c r="B54">
-        <v>-17.70121787345959</v>
+        <v>-17.852626911831</v>
       </c>
       <c r="C54">
-        <v>-16.77149625048162</v>
+        <v>-17.05607475433739</v>
       </c>
       <c r="D54">
-        <v>34.94202973834477</v>
+        <v>35.52786506741941</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.018</v>
       </c>
       <c r="B55">
-        <v>-18.83639460374058</v>
+        <v>-18.71548580364036</v>
       </c>
       <c r="C55">
-        <v>-15.55652598989883</v>
+        <v>-15.68708348364915</v>
       </c>
       <c r="D55">
-        <v>34.28156102769334</v>
+        <v>34.38125155859474</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.01833333333333334</v>
       </c>
       <c r="B56">
-        <v>-21.44161874548883</v>
+        <v>-21.290307738027</v>
       </c>
       <c r="C56">
-        <v>-14.85796087009737</v>
+        <v>-14.55616201077023</v>
       </c>
       <c r="D56">
-        <v>34.39594860766003</v>
+        <v>33.60460749942321</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.01866666666666667</v>
       </c>
       <c r="B57">
-        <v>-25.20468843993914</v>
+        <v>-25.60028007880647</v>
       </c>
       <c r="C57">
-        <v>-11.094332323675</v>
+        <v>-11.51183361068259</v>
       </c>
       <c r="D57">
-        <v>32.42014912097772</v>
+        <v>32.61920508971581</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.01900000000000001</v>
       </c>
       <c r="B58">
-        <v>-29.51484368607066</v>
+        <v>-29.46663409398878</v>
       </c>
       <c r="C58">
-        <v>-6.136913403585812</v>
+        <v>-6.458423489522636</v>
       </c>
       <c r="D58">
-        <v>33.57677394460679</v>
+        <v>33.70683344780063</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.01933333333333334</v>
       </c>
       <c r="B59">
-        <v>-32.57469891332938</v>
+        <v>-32.155415357275</v>
       </c>
       <c r="C59">
-        <v>-2.108902048501976</v>
+        <v>-2.191368593491561</v>
       </c>
       <c r="D59">
-        <v>35.4364769351474</v>
+        <v>35.02516928559078</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.01966666666666668</v>
       </c>
       <c r="B60">
-        <v>-33.154259978933</v>
+        <v>-33.6482980383444</v>
       </c>
       <c r="C60">
-        <v>-0.5587784503927745</v>
+        <v>-0.4054827083040113</v>
       </c>
       <c r="D60">
-        <v>35.20031954573761</v>
+        <v>35.34468133151898</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.02000000000000001</v>
       </c>
       <c r="B61">
-        <v>-34.970982487753</v>
+        <v>-35.46824502073981</v>
       </c>
       <c r="C61">
-        <v>-0.009356175926650279</v>
+        <v>0.006478370223814145</v>
       </c>
       <c r="D61">
-        <v>35.0869018108092</v>
+        <v>35.43795688326701</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.02033333333333335</v>
       </c>
       <c r="B62">
-        <v>-35.26700629786342</v>
+        <v>-35.38323579859861</v>
       </c>
       <c r="C62">
-        <v>0.4935200372656323</v>
+        <v>0.3854034107511617</v>
       </c>
       <c r="D62">
-        <v>33.33691389018502</v>
+        <v>33.66452304912442</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.02066666666666668</v>
       </c>
       <c r="B63">
-        <v>-35.52925246601866</v>
+        <v>-35.03604439257641</v>
       </c>
       <c r="C63">
-        <v>2.047141105362208</v>
+        <v>2.12864551452141</v>
       </c>
       <c r="D63">
-        <v>32.27779911516762</v>
+        <v>32.18467565429896</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.02100000000000002</v>
       </c>
       <c r="B64">
-        <v>-34.22396757508202</v>
+        <v>-33.80313454494461</v>
       </c>
       <c r="C64">
-        <v>6.17748354301298</v>
+        <v>6.373462644562387</v>
       </c>
       <c r="D64">
-        <v>30.13192965434862</v>
+        <v>29.62336835664582</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.02133333333333335</v>
       </c>
       <c r="B65">
-        <v>-32.28948648675809</v>
+        <v>-32.63501573425106</v>
       </c>
       <c r="C65">
-        <v>11.19780628913061</v>
+        <v>11.50320927964743</v>
       </c>
       <c r="D65">
-        <v>24.82517914495594</v>
+        <v>25.59328395711561</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.02166666666666668</v>
       </c>
       <c r="B66">
-        <v>-34.07652786418912</v>
+        <v>-33.53580480052781</v>
       </c>
       <c r="C66">
-        <v>14.7436926100724</v>
+        <v>14.52648450617836</v>
       </c>
       <c r="D66">
-        <v>21.2557747342338</v>
+        <v>21.29552386274478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.02200000000000002</v>
       </c>
       <c r="B67">
-        <v>-34.52090931291717</v>
+        <v>-34.28881545533916</v>
       </c>
       <c r="C67">
-        <v>15.70568953593421</v>
+        <v>15.65119251884365</v>
       </c>
       <c r="D67">
-        <v>18.99330406907762</v>
+        <v>18.71921190997182</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.02233333333333335</v>
       </c>
       <c r="B68">
-        <v>-34.87750782114959</v>
+        <v>-35.49752123742038</v>
       </c>
       <c r="C68">
-        <v>16.70236302652957</v>
+        <v>17.04903905739942</v>
       </c>
       <c r="D68">
-        <v>17.79892886645422</v>
+        <v>17.89633006652358</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.02266666666666669</v>
       </c>
       <c r="B69">
-        <v>-35.08967640219664</v>
+        <v>-35.48436160278372</v>
       </c>
       <c r="C69">
-        <v>17.80098185840684</v>
+        <v>17.8612445325764</v>
       </c>
       <c r="D69">
-        <v>16.73636985159821</v>
+        <v>17.0350321906846</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.02300000000000002</v>
       </c>
       <c r="B70">
-        <v>-34.40894922168732</v>
+        <v>-34.42148199558687</v>
       </c>
       <c r="C70">
-        <v>18.83408424701999</v>
+        <v>18.74157409165314</v>
       </c>
       <c r="D70">
-        <v>15.5675501396696</v>
+        <v>15.66641625137942</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.02333333333333336</v>
       </c>
       <c r="B71">
-        <v>-34.36003187798892</v>
+        <v>-33.68835167044724</v>
       </c>
       <c r="C71">
-        <v>21.33336745441958</v>
+        <v>21.30423289369882</v>
       </c>
       <c r="D71">
-        <v>14.90561690116299</v>
+        <v>14.56186579847779</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.02366666666666669</v>
       </c>
       <c r="B72">
-        <v>-32.25784896921413</v>
+        <v>-32.74346000270727</v>
       </c>
       <c r="C72">
-        <v>25.12312810852964</v>
+        <v>25.60834716485723</v>
       </c>
       <c r="D72">
-        <v>11.23536112787697</v>
+        <v>11.52798747334025</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.02400000000000003</v>
       </c>
       <c r="B73">
-        <v>-33.59381599941396</v>
+        <v>-33.8566214643868</v>
       </c>
       <c r="C73">
-        <v>29.59536672817197</v>
+        <v>29.53022149984081</v>
       </c>
       <c r="D73">
-        <v>6.176424901562991</v>
+        <v>6.446487530344935</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.02433333333333336</v>
       </c>
       <c r="B74">
-        <v>-35.63797177454021</v>
+        <v>-35.08588172372547</v>
       </c>
       <c r="C74">
-        <v>32.64796532536779</v>
+        <v>32.206211580222</v>
       </c>
       <c r="D74">
-        <v>2.057379806135462</v>
+        <v>2.165009314031435</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.0246666666666667</v>
       </c>
       <c r="B75">
-        <v>-35.38804454259522</v>
+        <v>-35.3481381977248</v>
       </c>
       <c r="C75">
-        <v>33.20082134834261</v>
+        <v>33.67977305694637</v>
       </c>
       <c r="D75">
-        <v>0.5089082963549707</v>
+        <v>0.3897407456537882</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.02500000000000003</v>
       </c>
       <c r="B76">
-        <v>-34.9713611963056</v>
+        <v>-35.41003160252462</v>
       </c>
       <c r="C76">
-        <v>34.9391687329614</v>
+        <v>35.44760686236763</v>
       </c>
       <c r="D76">
-        <v>-0.0105607187354112</v>
+        <v>-0.01350869602859128</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.02533333333333337</v>
       </c>
       <c r="B77">
-        <v>-32.98582900365058</v>
+        <v>-33.61103446973258</v>
       </c>
       <c r="C77">
-        <v>35.19275484094222</v>
+        <v>35.37124317738738</v>
       </c>
       <c r="D77">
-        <v>-0.4692178363838173</v>
+        <v>-0.3927116046881923</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.0256666666666667</v>
       </c>
       <c r="B78">
-        <v>-32.11694133727558</v>
+        <v>-32.11457490433421</v>
       </c>
       <c r="C78">
-        <v>35.49773644052238</v>
+        <v>35.03943982629588</v>
       </c>
       <c r="D78">
-        <v>-2.007464953371966</v>
+        <v>-2.138949975309182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.02600000000000004</v>
       </c>
       <c r="B79">
-        <v>-30.23908828410741</v>
+        <v>-29.57039502014543</v>
       </c>
       <c r="C79">
-        <v>34.16821287061398</v>
+        <v>33.78665952589724</v>
       </c>
       <c r="D79">
-        <v>-6.174395798566393</v>
+        <v>-6.362100071194421</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.02633333333333337</v>
       </c>
       <c r="B80">
-        <v>-24.86793852800443</v>
+        <v>-25.5883925908354</v>
       </c>
       <c r="C80">
-        <v>32.11579252143999</v>
+        <v>32.60483042500179</v>
       </c>
       <c r="D80">
-        <v>-11.21282983080639</v>
+        <v>-11.48064401458704</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.02666666666666671</v>
       </c>
       <c r="B81">
-        <v>-21.13945279635501</v>
+        <v>-21.30683995912597</v>
       </c>
       <c r="C81">
-        <v>33.94163714995913</v>
+        <v>33.49620653419076</v>
       </c>
       <c r="D81">
-        <v>-14.72684417691099</v>
+        <v>-14.51245273619936</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.02700000000000004</v>
       </c>
       <c r="B82">
-        <v>-18.89461911580418</v>
+        <v>-18.71337210766044</v>
       </c>
       <c r="C82">
-        <v>34.55068824303569</v>
+        <v>34.30347529797578</v>
       </c>
       <c r="D82">
-        <v>-15.72153874609926</v>
+        <v>-15.66382904950057</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.02733333333333338</v>
       </c>
       <c r="B83">
-        <v>-17.80736487215558</v>
+        <v>-17.88110242087859</v>
       </c>
       <c r="C83">
-        <v>34.86808485940758</v>
+        <v>35.51165036455188</v>
       </c>
       <c r="D83">
-        <v>-16.67072403225355</v>
+        <v>-17.05474710265685</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.02766666666666671</v>
       </c>
       <c r="B84">
-        <v>-16.81408054552303</v>
+        <v>-17.06000845407098</v>
       </c>
       <c r="C84">
-        <v>35.02099297061567</v>
+        <v>35.5350200986795</v>
       </c>
       <c r="D84">
-        <v>-17.77712811594182</v>
+        <v>-17.88315695594262</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.02800000000000005</v>
       </c>
       <c r="B85">
-        <v>-15.59069449411941</v>
+        <v>-15.66851969444082</v>
       </c>
       <c r="C85">
-        <v>34.34961612989086</v>
+        <v>34.34131890035328</v>
       </c>
       <c r="D85">
-        <v>-18.83052318544104</v>
+        <v>-18.7163159196084</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.02833333333333338</v>
       </c>
       <c r="B86">
-        <v>-14.92013309850257</v>
+        <v>-14.55672846871758</v>
       </c>
       <c r="C86">
-        <v>34.49993135296646</v>
+        <v>33.61411837281944</v>
       </c>
       <c r="D86">
-        <v>-21.43177530393739</v>
+        <v>-21.29096778313695</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.02866666666666672</v>
       </c>
       <c r="B87">
-        <v>-11.14859603455525</v>
+        <v>-11.5272887752204</v>
       </c>
       <c r="C87">
-        <v>32.37237139923378</v>
+        <v>32.67057404355165</v>
       </c>
       <c r="D87">
-        <v>-25.21799706114721</v>
+        <v>-25.61742540824863</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.02900000000000005</v>
       </c>
       <c r="B88">
-        <v>-6.136973224978165</v>
+        <v>-6.478086814670214</v>
       </c>
       <c r="C88">
-        <v>33.64519547586151</v>
+        <v>33.73642705670478</v>
       </c>
       <c r="D88">
-        <v>-29.64073414615541</v>
+        <v>-29.53484609805678</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.02933333333333338</v>
       </c>
       <c r="B89">
-        <v>-2.052486078530994</v>
+        <v>-2.199558560410583</v>
       </c>
       <c r="C89">
-        <v>35.62283591039921</v>
+        <v>35.03158953124267</v>
       </c>
       <c r="D89">
-        <v>-32.62568650002879</v>
+        <v>-32.22972264504759</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.02966666666666672</v>
       </c>
       <c r="B90">
-        <v>-0.5162172743880533</v>
+        <v>-0.4081340360320013</v>
       </c>
       <c r="C90">
-        <v>35.21418271911239</v>
+        <v>35.38172887181619</v>
       </c>
       <c r="D90">
-        <v>-33.01599506452278</v>
+        <v>-33.75018592328083</v>
       </c>
     </row>
   </sheetData>
